--- a/modulo_plan/informes/Meses/202111.xlsx
+++ b/modulo_plan/informes/Meses/202111.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Entrega de Jairo\Informe de ventas\202111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villalobosc\Documents\base inf mes\TERMINADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B71226F-27EC-43FA-A8D0-8CE974B321FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C14A556-DE58-470D-9EAC-62042DE2A1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63A81595-2CF8-4014-91F5-FF62248CC185}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7CB7A184-02EF-4445-82E8-AC8BD3A92222}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATOS COSTO" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Suma de COSTO TOTAL</t>
+  </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
   <si>
     <t>MAR</t>
   </si>
@@ -948,13 +958,7 @@
     <t>ZOO</t>
   </si>
   <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>COSTO TOTAL</t>
-  </si>
-  <si>
-    <t>PERIODO</t>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -990,11 +994,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,29 +1309,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7544BA4-E54E-4884-BC61-36B3AFE848A5}">
-  <dimension ref="A1:C305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3635C609-5180-490A-AF8E-46C20A37EBD7}">
+  <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2230963</v>
@@ -1340,8 +1346,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>896893</v>
@@ -1351,8 +1357,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>757088</v>
@@ -1362,8 +1368,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>257987691</v>
@@ -1373,8 +1379,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5215561</v>
@@ -1384,8 +1390,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1395,8 +1401,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2464142</v>
@@ -1406,8 +1412,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
         <v>8750958</v>
@@ -1417,8 +1423,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4371878</v>
@@ -1428,8 +1434,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3069250</v>
@@ -1439,8 +1445,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
         <v>4037672</v>
@@ -1450,8 +1456,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
         <v>10399947</v>
@@ -1461,8 +1467,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1179240</v>
@@ -1472,8 +1478,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
         <v>10374122</v>
@@ -1483,8 +1489,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
         <v>3641850</v>
@@ -1494,8 +1500,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
         <v>3571896</v>
@@ -1505,8 +1511,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1516,8 +1522,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>11238858</v>
@@ -1527,8 +1533,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>34220</v>
@@ -1538,8 +1544,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
         <v>723200</v>
@@ -1549,8 +1555,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
         <v>14698526</v>
@@ -1560,8 +1566,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1571,8 +1577,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
         <v>9098154</v>
@@ -1582,8 +1588,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1024575</v>
@@ -1593,8 +1599,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1604,8 +1610,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1615,8 +1621,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
         <v>4249748</v>
@@ -1626,8 +1632,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1637,8 +1643,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>257142</v>
@@ -1648,8 +1654,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
         <v>3795876</v>
@@ -1659,8 +1665,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
         <v>3481126</v>
@@ -1670,8 +1676,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
         <v>11121889</v>
@@ -1681,8 +1687,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
         <v>22567730</v>
@@ -1692,8 +1698,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
         <v>3180608</v>
@@ -1703,8 +1709,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
       <c r="B36">
         <v>2401679</v>
@@ -1714,8 +1720,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>38</v>
       </c>
       <c r="B37">
         <v>126578476</v>
@@ -1725,8 +1731,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38">
         <v>33188778</v>
@@ -1736,8 +1742,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>40</v>
       </c>
       <c r="B39">
         <v>94788321</v>
@@ -1747,8 +1753,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
+      <c r="A40" t="s">
+        <v>41</v>
       </c>
       <c r="B40">
         <v>7004160</v>
@@ -1758,8 +1764,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
+      <c r="A41" t="s">
+        <v>42</v>
       </c>
       <c r="B41">
         <v>94799239</v>
@@ -1769,8 +1775,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
+      <c r="A42" t="s">
+        <v>43</v>
       </c>
       <c r="B42">
         <v>47511593</v>
@@ -1780,8 +1786,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
+      <c r="A43" t="s">
+        <v>44</v>
       </c>
       <c r="B43">
         <v>1992065</v>
@@ -1791,8 +1797,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
+      <c r="A44" t="s">
+        <v>45</v>
       </c>
       <c r="B44">
         <v>92959541</v>
@@ -1802,8 +1808,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>46</v>
       </c>
       <c r="B45">
         <v>3085764</v>
@@ -1813,8 +1819,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>47</v>
       </c>
       <c r="B46">
         <v>7508</v>
@@ -1824,8 +1830,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
+      <c r="A47" t="s">
+        <v>48</v>
       </c>
       <c r="B47">
         <v>126000</v>
@@ -1835,8 +1841,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>49</v>
       </c>
       <c r="B48">
         <v>4607483</v>
@@ -1846,8 +1852,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>50</v>
       </c>
       <c r="B49">
         <v>1690000</v>
@@ -1857,8 +1863,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
+      <c r="A50" t="s">
+        <v>51</v>
       </c>
       <c r="B50">
         <v>403451</v>
@@ -1868,8 +1874,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
+      <c r="A51" t="s">
+        <v>52</v>
       </c>
       <c r="B51">
         <v>690000</v>
@@ -1879,8 +1885,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
+      <c r="A52" t="s">
+        <v>53</v>
       </c>
       <c r="B52">
         <v>2445500</v>
@@ -1890,8 +1896,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
+      <c r="A53" t="s">
+        <v>54</v>
       </c>
       <c r="B53">
         <v>300000</v>
@@ -1901,8 +1907,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
+      <c r="A54" t="s">
+        <v>55</v>
       </c>
       <c r="B54">
         <v>27144587</v>
@@ -1912,8 +1918,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
+      <c r="A55" t="s">
+        <v>56</v>
       </c>
       <c r="B55">
         <v>1155134</v>
@@ -1923,8 +1929,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
+      <c r="A56" t="s">
+        <v>57</v>
       </c>
       <c r="B56">
         <v>19131899</v>
@@ -1934,8 +1940,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
+      <c r="A57" t="s">
+        <v>58</v>
       </c>
       <c r="B57">
         <v>4208839</v>
@@ -1945,8 +1951,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
+      <c r="A58" t="s">
+        <v>59</v>
       </c>
       <c r="B58">
         <v>1695075</v>
@@ -1956,8 +1962,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
+      <c r="A59" t="s">
+        <v>60</v>
       </c>
       <c r="B59">
         <v>440500</v>
@@ -1967,8 +1973,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
+      <c r="A60" t="s">
+        <v>61</v>
       </c>
       <c r="B60">
         <v>50000</v>
@@ -1978,8 +1984,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
+      <c r="A61" t="s">
+        <v>62</v>
       </c>
       <c r="B61">
         <v>1135743</v>
@@ -1989,8 +1995,8 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
+      <c r="A62" t="s">
+        <v>63</v>
       </c>
       <c r="B62">
         <v>4170084</v>
@@ -2000,8 +2006,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
+      <c r="A63" t="s">
+        <v>64</v>
       </c>
       <c r="B63">
         <v>1348700</v>
@@ -2011,8 +2017,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
+      <c r="A64" t="s">
+        <v>65</v>
       </c>
       <c r="B64">
         <v>506287</v>
@@ -2022,8 +2028,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
+      <c r="A65" t="s">
+        <v>66</v>
       </c>
       <c r="B65">
         <v>1089500</v>
@@ -2033,8 +2039,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
+      <c r="A66" t="s">
+        <v>67</v>
       </c>
       <c r="B66">
         <v>6418700</v>
@@ -2044,8 +2050,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
+      <c r="A67" t="s">
+        <v>68</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2055,8 +2061,8 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
+      <c r="A68" t="s">
+        <v>69</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2066,8 +2072,8 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
+      <c r="A69" t="s">
+        <v>70</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2077,8 +2083,8 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
+      <c r="A70" t="s">
+        <v>71</v>
       </c>
       <c r="B70">
         <v>1039000</v>
@@ -2088,8 +2094,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
+      <c r="A71" t="s">
+        <v>72</v>
       </c>
       <c r="B71">
         <v>1641962</v>
@@ -2099,8 +2105,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
+      <c r="A72" t="s">
+        <v>73</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2110,8 +2116,8 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
+      <c r="A73" t="s">
+        <v>74</v>
       </c>
       <c r="B73">
         <v>88801986</v>
@@ -2121,8 +2127,8 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
+      <c r="A74" t="s">
+        <v>75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2132,8 +2138,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
+      <c r="A75" t="s">
+        <v>76</v>
       </c>
       <c r="B75">
         <v>44776958</v>
@@ -2143,8 +2149,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
+      <c r="A76" t="s">
+        <v>77</v>
       </c>
       <c r="B76">
         <v>621192</v>
@@ -2154,8 +2160,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
+      <c r="A77" t="s">
+        <v>78</v>
       </c>
       <c r="B77">
         <v>169766071</v>
@@ -2165,8 +2171,8 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
+      <c r="A78" t="s">
+        <v>79</v>
       </c>
       <c r="B78">
         <v>1716721</v>
@@ -2176,8 +2182,8 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
+      <c r="A79" t="s">
+        <v>80</v>
       </c>
       <c r="B79">
         <v>107735619</v>
@@ -2187,8 +2193,8 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
+      <c r="A80" t="s">
+        <v>81</v>
       </c>
       <c r="B80">
         <v>109498542</v>
@@ -2198,8 +2204,8 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
+      <c r="A81" t="s">
+        <v>82</v>
       </c>
       <c r="B81">
         <v>48292175</v>
@@ -2209,8 +2215,8 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
+      <c r="A82" t="s">
+        <v>83</v>
       </c>
       <c r="B82">
         <v>378863</v>
@@ -2220,8 +2226,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
+      <c r="A83" t="s">
+        <v>84</v>
       </c>
       <c r="B83">
         <v>2888184</v>
@@ -2231,8 +2237,8 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>82</v>
+      <c r="A84" t="s">
+        <v>85</v>
       </c>
       <c r="B84">
         <v>2124069</v>
@@ -2242,8 +2248,8 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
+      <c r="A85" t="s">
+        <v>86</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2253,8 +2259,8 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>84</v>
+      <c r="A86" t="s">
+        <v>87</v>
       </c>
       <c r="B86">
         <v>23378761</v>
@@ -2264,8 +2270,8 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>85</v>
+      <c r="A87" t="s">
+        <v>88</v>
       </c>
       <c r="B87">
         <v>25659877</v>
@@ -2275,8 +2281,8 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>86</v>
+      <c r="A88" t="s">
+        <v>89</v>
       </c>
       <c r="B88">
         <v>299273819</v>
@@ -2286,8 +2292,8 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>87</v>
+      <c r="A89" t="s">
+        <v>90</v>
       </c>
       <c r="B89">
         <v>388207</v>
@@ -2297,8 +2303,8 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
+      <c r="A90" t="s">
+        <v>91</v>
       </c>
       <c r="B90">
         <v>19931431</v>
@@ -2308,8 +2314,8 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>89</v>
+      <c r="A91" t="s">
+        <v>92</v>
       </c>
       <c r="B91">
         <v>43758627</v>
@@ -2319,8 +2325,8 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>90</v>
+      <c r="A92" t="s">
+        <v>93</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2330,8 +2336,8 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>91</v>
+      <c r="A93" t="s">
+        <v>94</v>
       </c>
       <c r="B93">
         <v>15520</v>
@@ -2341,8 +2347,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
+      <c r="A94" t="s">
+        <v>95</v>
       </c>
       <c r="B94">
         <v>4293504</v>
@@ -2352,8 +2358,8 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>93</v>
+      <c r="A95" t="s">
+        <v>96</v>
       </c>
       <c r="B95">
         <v>320254</v>
@@ -2363,8 +2369,8 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>94</v>
+      <c r="A96" t="s">
+        <v>97</v>
       </c>
       <c r="B96">
         <v>25784971</v>
@@ -2374,8 +2380,8 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>95</v>
+      <c r="A97" t="s">
+        <v>98</v>
       </c>
       <c r="B97">
         <v>9869374</v>
@@ -2385,8 +2391,8 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
+      <c r="A98" t="s">
+        <v>99</v>
       </c>
       <c r="B98">
         <v>5503697</v>
@@ -2396,8 +2402,8 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
+      <c r="A99" t="s">
+        <v>100</v>
       </c>
       <c r="B99">
         <v>474477</v>
@@ -2407,8 +2413,8 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
+      <c r="A100" t="s">
+        <v>101</v>
       </c>
       <c r="B100">
         <v>3822724</v>
@@ -2418,8 +2424,8 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
+      <c r="A101" t="s">
+        <v>102</v>
       </c>
       <c r="B101">
         <v>37378851</v>
@@ -2429,8 +2435,8 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>100</v>
+      <c r="A102" t="s">
+        <v>103</v>
       </c>
       <c r="B102">
         <v>17736520</v>
@@ -2440,8 +2446,8 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>101</v>
+      <c r="A103" t="s">
+        <v>104</v>
       </c>
       <c r="B103">
         <v>2982511</v>
@@ -2451,8 +2457,8 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>102</v>
+      <c r="A104" t="s">
+        <v>105</v>
       </c>
       <c r="B104">
         <v>7006116</v>
@@ -2462,8 +2468,8 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>103</v>
+      <c r="A105" t="s">
+        <v>106</v>
       </c>
       <c r="B105">
         <v>171844</v>
@@ -2473,8 +2479,8 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>104</v>
+      <c r="A106" t="s">
+        <v>107</v>
       </c>
       <c r="B106">
         <v>252930</v>
@@ -2484,8 +2490,8 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>105</v>
+      <c r="A107" t="s">
+        <v>108</v>
       </c>
       <c r="B107">
         <v>4932112</v>
@@ -2495,8 +2501,8 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>106</v>
+      <c r="A108" t="s">
+        <v>109</v>
       </c>
       <c r="B108">
         <v>10900</v>
@@ -2506,8 +2512,8 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>107</v>
+      <c r="A109" t="s">
+        <v>110</v>
       </c>
       <c r="B109">
         <v>5971417</v>
@@ -2517,8 +2523,8 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>108</v>
+      <c r="A110" t="s">
+        <v>111</v>
       </c>
       <c r="B110">
         <v>1862308</v>
@@ -2528,8 +2534,8 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>109</v>
+      <c r="A111" t="s">
+        <v>112</v>
       </c>
       <c r="B111">
         <v>8538783</v>
@@ -2539,8 +2545,8 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>110</v>
+      <c r="A112" t="s">
+        <v>113</v>
       </c>
       <c r="B112">
         <v>258742027</v>
@@ -2550,8 +2556,8 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>111</v>
+      <c r="A113" t="s">
+        <v>114</v>
       </c>
       <c r="B113">
         <v>46608669</v>
@@ -2561,8 +2567,8 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>112</v>
+      <c r="A114" t="s">
+        <v>115</v>
       </c>
       <c r="B114">
         <v>236000</v>
@@ -2572,8 +2578,8 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>113</v>
+      <c r="A115" t="s">
+        <v>116</v>
       </c>
       <c r="B115">
         <v>2620876</v>
@@ -2583,8 +2589,8 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>114</v>
+      <c r="A116" t="s">
+        <v>117</v>
       </c>
       <c r="B116">
         <v>12541671</v>
@@ -2594,8 +2600,8 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>115</v>
+      <c r="A117" t="s">
+        <v>118</v>
       </c>
       <c r="B117">
         <v>8345340</v>
@@ -2605,8 +2611,8 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>116</v>
+      <c r="A118" t="s">
+        <v>119</v>
       </c>
       <c r="B118">
         <v>7801081</v>
@@ -2616,8 +2622,8 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>117</v>
+      <c r="A119" t="s">
+        <v>120</v>
       </c>
       <c r="B119">
         <v>4209523</v>
@@ -2627,8 +2633,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>118</v>
+      <c r="A120" t="s">
+        <v>121</v>
       </c>
       <c r="B120">
         <v>397070</v>
@@ -2638,8 +2644,8 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>119</v>
+      <c r="A121" t="s">
+        <v>122</v>
       </c>
       <c r="B121">
         <v>61443402</v>
@@ -2649,8 +2655,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>120</v>
+      <c r="A122" t="s">
+        <v>123</v>
       </c>
       <c r="B122">
         <v>15996392</v>
@@ -2660,8 +2666,8 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>121</v>
+      <c r="A123" t="s">
+        <v>124</v>
       </c>
       <c r="B123">
         <v>18648575</v>
@@ -2671,8 +2677,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>122</v>
+      <c r="A124" t="s">
+        <v>125</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2682,8 +2688,8 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>123</v>
+      <c r="A125" t="s">
+        <v>126</v>
       </c>
       <c r="B125">
         <v>166005326</v>
@@ -2693,8 +2699,8 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>124</v>
+      <c r="A126" t="s">
+        <v>127</v>
       </c>
       <c r="B126">
         <v>20384588</v>
@@ -2704,8 +2710,8 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>125</v>
+      <c r="A127" t="s">
+        <v>128</v>
       </c>
       <c r="B127">
         <v>1219288</v>
@@ -2715,8 +2721,8 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>126</v>
+      <c r="A128" t="s">
+        <v>129</v>
       </c>
       <c r="B128">
         <v>4236456</v>
@@ -2726,8 +2732,8 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>127</v>
+      <c r="A129" t="s">
+        <v>130</v>
       </c>
       <c r="B129">
         <v>789211</v>
@@ -2737,8 +2743,8 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>128</v>
+      <c r="A130" t="s">
+        <v>131</v>
       </c>
       <c r="B130">
         <v>884808</v>
@@ -2748,8 +2754,8 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>129</v>
+      <c r="A131" t="s">
+        <v>132</v>
       </c>
       <c r="B131">
         <v>68321452</v>
@@ -2759,8 +2765,8 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>130</v>
+      <c r="A132" t="s">
+        <v>133</v>
       </c>
       <c r="B132">
         <v>8992721</v>
@@ -2770,8 +2776,8 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>131</v>
+      <c r="A133" t="s">
+        <v>134</v>
       </c>
       <c r="B133">
         <v>838013</v>
@@ -2781,8 +2787,8 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>132</v>
+      <c r="A134" t="s">
+        <v>135</v>
       </c>
       <c r="B134">
         <v>234326</v>
@@ -2792,8 +2798,8 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>133</v>
+      <c r="A135" t="s">
+        <v>136</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2803,8 +2809,8 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>134</v>
+      <c r="A136" t="s">
+        <v>137</v>
       </c>
       <c r="B136">
         <v>2716225</v>
@@ -2814,8 +2820,8 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>135</v>
+      <c r="A137" t="s">
+        <v>138</v>
       </c>
       <c r="B137">
         <v>1510000</v>
@@ -2825,8 +2831,8 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>136</v>
+      <c r="A138" t="s">
+        <v>139</v>
       </c>
       <c r="B138">
         <v>1735869</v>
@@ -2836,8 +2842,8 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>137</v>
+      <c r="A139" t="s">
+        <v>140</v>
       </c>
       <c r="B139">
         <v>2507497</v>
@@ -2847,8 +2853,8 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>138</v>
+      <c r="A140" t="s">
+        <v>141</v>
       </c>
       <c r="B140">
         <v>400000</v>
@@ -2858,8 +2864,8 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>139</v>
+      <c r="A141" t="s">
+        <v>142</v>
       </c>
       <c r="B141">
         <v>3092968</v>
@@ -2869,8 +2875,8 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>140</v>
+      <c r="A142" t="s">
+        <v>143</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2880,8 +2886,8 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>141</v>
+      <c r="A143" t="s">
+        <v>144</v>
       </c>
       <c r="B143">
         <v>35284</v>
@@ -2891,8 +2897,8 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>142</v>
+      <c r="A144" t="s">
+        <v>145</v>
       </c>
       <c r="B144">
         <v>922409</v>
@@ -2902,8 +2908,8 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>143</v>
+      <c r="A145" t="s">
+        <v>146</v>
       </c>
       <c r="B145">
         <v>15958530</v>
@@ -2913,8 +2919,8 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>144</v>
+      <c r="A146" t="s">
+        <v>147</v>
       </c>
       <c r="B146">
         <v>14003124</v>
@@ -2924,8 +2930,8 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>145</v>
+      <c r="A147" t="s">
+        <v>148</v>
       </c>
       <c r="B147">
         <v>54777</v>
@@ -2935,8 +2941,8 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>146</v>
+      <c r="A148" t="s">
+        <v>149</v>
       </c>
       <c r="B148">
         <v>1845560</v>
@@ -2946,8 +2952,8 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>147</v>
+      <c r="A149" t="s">
+        <v>150</v>
       </c>
       <c r="B149">
         <v>3675223</v>
@@ -2957,8 +2963,8 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>148</v>
+      <c r="A150" t="s">
+        <v>151</v>
       </c>
       <c r="B150">
         <v>912248</v>
@@ -2968,8 +2974,8 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>149</v>
+      <c r="A151" t="s">
+        <v>152</v>
       </c>
       <c r="B151">
         <v>49771575</v>
@@ -2979,8 +2985,8 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>150</v>
+      <c r="A152" t="s">
+        <v>153</v>
       </c>
       <c r="B152">
         <v>38334170</v>
@@ -2990,8 +2996,8 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>151</v>
+      <c r="A153" t="s">
+        <v>154</v>
       </c>
       <c r="B153">
         <v>2094537</v>
@@ -3001,8 +3007,8 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>152</v>
+      <c r="A154" t="s">
+        <v>155</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3012,8 +3018,8 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>153</v>
+      <c r="A155" t="s">
+        <v>156</v>
       </c>
       <c r="B155">
         <v>30010567</v>
@@ -3023,8 +3029,8 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>154</v>
+      <c r="A156" t="s">
+        <v>157</v>
       </c>
       <c r="B156">
         <v>50522647</v>
@@ -3034,8 +3040,8 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>155</v>
+      <c r="A157" t="s">
+        <v>158</v>
       </c>
       <c r="B157">
         <v>462511</v>
@@ -3045,8 +3051,8 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>156</v>
+      <c r="A158" t="s">
+        <v>159</v>
       </c>
       <c r="B158">
         <v>3944858</v>
@@ -3056,8 +3062,8 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>157</v>
+      <c r="A159" t="s">
+        <v>160</v>
       </c>
       <c r="B159">
         <v>280080</v>
@@ -3067,8 +3073,8 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>158</v>
+      <c r="A160" t="s">
+        <v>161</v>
       </c>
       <c r="B160">
         <v>8190733</v>
@@ -3078,8 +3084,8 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>159</v>
+      <c r="A161" t="s">
+        <v>162</v>
       </c>
       <c r="B161">
         <v>4156878</v>
@@ -3089,8 +3095,8 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>160</v>
+      <c r="A162" t="s">
+        <v>163</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3100,8 +3106,8 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>161</v>
+      <c r="A163" t="s">
+        <v>164</v>
       </c>
       <c r="B163">
         <v>1710156</v>
@@ -3111,8 +3117,8 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>162</v>
+      <c r="A164" t="s">
+        <v>165</v>
       </c>
       <c r="B164">
         <v>14249193</v>
@@ -3122,8 +3128,8 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>163</v>
+      <c r="A165" t="s">
+        <v>166</v>
       </c>
       <c r="B165">
         <v>1601456</v>
@@ -3133,8 +3139,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>164</v>
+      <c r="A166" t="s">
+        <v>167</v>
       </c>
       <c r="B166">
         <v>734080</v>
@@ -3144,8 +3150,8 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>165</v>
+      <c r="A167" t="s">
+        <v>168</v>
       </c>
       <c r="B167">
         <v>5476460</v>
@@ -3155,8 +3161,8 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>166</v>
+      <c r="A168" t="s">
+        <v>169</v>
       </c>
       <c r="B168">
         <v>5591040</v>
@@ -3166,8 +3172,8 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>167</v>
+      <c r="A169" t="s">
+        <v>170</v>
       </c>
       <c r="B169">
         <v>2420802</v>
@@ -3177,8 +3183,8 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>168</v>
+      <c r="A170" t="s">
+        <v>171</v>
       </c>
       <c r="B170">
         <v>99620</v>
@@ -3188,8 +3194,8 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>169</v>
+      <c r="A171" t="s">
+        <v>172</v>
       </c>
       <c r="B171">
         <v>17397266</v>
@@ -3199,8 +3205,8 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>170</v>
+      <c r="A172" t="s">
+        <v>173</v>
       </c>
       <c r="B172">
         <v>2232404</v>
@@ -3210,8 +3216,8 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>171</v>
+      <c r="A173" t="s">
+        <v>174</v>
       </c>
       <c r="B173">
         <v>13936167</v>
@@ -3221,8 +3227,8 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>172</v>
+      <c r="A174" t="s">
+        <v>175</v>
       </c>
       <c r="B174">
         <v>958452</v>
@@ -3232,8 +3238,8 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>173</v>
+      <c r="A175" t="s">
+        <v>176</v>
       </c>
       <c r="B175">
         <v>282872</v>
@@ -3243,8 +3249,8 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>174</v>
+      <c r="A176" t="s">
+        <v>177</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3254,8 +3260,8 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>175</v>
+      <c r="A177" t="s">
+        <v>178</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3265,8 +3271,8 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>176</v>
+      <c r="A178" t="s">
+        <v>179</v>
       </c>
       <c r="B178">
         <v>2843820</v>
@@ -3276,8 +3282,8 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>177</v>
+      <c r="A179" t="s">
+        <v>180</v>
       </c>
       <c r="B179">
         <v>163504</v>
@@ -3287,8 +3293,8 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>178</v>
+      <c r="A180" t="s">
+        <v>181</v>
       </c>
       <c r="B180">
         <v>275900</v>
@@ -3298,8 +3304,8 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>179</v>
+      <c r="A181" t="s">
+        <v>182</v>
       </c>
       <c r="B181">
         <v>688720</v>
@@ -3309,8 +3315,8 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>180</v>
+      <c r="A182" t="s">
+        <v>183</v>
       </c>
       <c r="B182">
         <v>142870403</v>
@@ -3320,8 +3326,8 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>181</v>
+      <c r="A183" t="s">
+        <v>184</v>
       </c>
       <c r="B183">
         <v>2259971</v>
@@ -3331,8 +3337,8 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>182</v>
+      <c r="A184" t="s">
+        <v>185</v>
       </c>
       <c r="B184">
         <v>1856215</v>
@@ -3342,8 +3348,8 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>183</v>
+      <c r="A185" t="s">
+        <v>186</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3353,8 +3359,8 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>184</v>
+      <c r="A186" t="s">
+        <v>187</v>
       </c>
       <c r="B186">
         <v>864000</v>
@@ -3364,8 +3370,8 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>185</v>
+      <c r="A187" t="s">
+        <v>188</v>
       </c>
       <c r="B187">
         <v>22900193</v>
@@ -3375,8 +3381,8 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>186</v>
+      <c r="A188" t="s">
+        <v>189</v>
       </c>
       <c r="B188">
         <v>243096914</v>
@@ -3386,8 +3392,8 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>187</v>
+      <c r="A189" t="s">
+        <v>190</v>
       </c>
       <c r="B189">
         <v>2026752198</v>
@@ -3397,8 +3403,8 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>188</v>
+      <c r="A190" t="s">
+        <v>191</v>
       </c>
       <c r="B190">
         <v>392759308</v>
@@ -3408,8 +3414,8 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>189</v>
+      <c r="A191" t="s">
+        <v>192</v>
       </c>
       <c r="B191">
         <v>21994476</v>
@@ -3419,8 +3425,8 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>190</v>
+      <c r="A192" t="s">
+        <v>193</v>
       </c>
       <c r="B192">
         <v>8502556</v>
@@ -3430,8 +3436,8 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>191</v>
+      <c r="A193" t="s">
+        <v>194</v>
       </c>
       <c r="B193">
         <v>1179101</v>
@@ -3441,8 +3447,8 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>192</v>
+      <c r="A194" t="s">
+        <v>195</v>
       </c>
       <c r="B194">
         <v>413056979</v>
@@ -3452,8 +3458,8 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>193</v>
+      <c r="A195" t="s">
+        <v>196</v>
       </c>
       <c r="B195">
         <v>380403501</v>
@@ -3463,8 +3469,8 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>194</v>
+      <c r="A196" t="s">
+        <v>197</v>
       </c>
       <c r="B196">
         <v>25502319</v>
@@ -3474,8 +3480,8 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>195</v>
+      <c r="A197" t="s">
+        <v>198</v>
       </c>
       <c r="B197">
         <v>13646813</v>
@@ -3485,8 +3491,8 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>196</v>
+      <c r="A198" t="s">
+        <v>199</v>
       </c>
       <c r="B198">
         <v>108988396</v>
@@ -3496,8 +3502,8 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>197</v>
+      <c r="A199" t="s">
+        <v>200</v>
       </c>
       <c r="B199">
         <v>1056097</v>
@@ -3507,8 +3513,8 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>198</v>
+      <c r="A200" t="s">
+        <v>201</v>
       </c>
       <c r="B200">
         <v>1439800</v>
@@ -3518,8 +3524,8 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>199</v>
+      <c r="A201" t="s">
+        <v>202</v>
       </c>
       <c r="B201">
         <v>34123</v>
@@ -3529,8 +3535,8 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>200</v>
+      <c r="A202" t="s">
+        <v>203</v>
       </c>
       <c r="B202">
         <v>2833080</v>
@@ -3540,8 +3546,8 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>201</v>
+      <c r="A203" t="s">
+        <v>204</v>
       </c>
       <c r="B203">
         <v>2277757</v>
@@ -3551,8 +3557,8 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>202</v>
+      <c r="A204" t="s">
+        <v>205</v>
       </c>
       <c r="B204">
         <v>3372000</v>
@@ -3562,8 +3568,8 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>203</v>
+      <c r="A205" t="s">
+        <v>206</v>
       </c>
       <c r="B205">
         <v>2527883</v>
@@ -3573,8 +3579,8 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>204</v>
+      <c r="A206" t="s">
+        <v>207</v>
       </c>
       <c r="B206">
         <v>3920</v>
@@ -3584,8 +3590,8 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>205</v>
+      <c r="A207" t="s">
+        <v>208</v>
       </c>
       <c r="B207">
         <v>19092908</v>
@@ -3595,8 +3601,8 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>206</v>
+      <c r="A208" t="s">
+        <v>209</v>
       </c>
       <c r="B208">
         <v>1062279</v>
@@ -3606,8 +3612,8 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>207</v>
+      <c r="A209" t="s">
+        <v>210</v>
       </c>
       <c r="B209">
         <v>52468739</v>
@@ -3617,8 +3623,8 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>208</v>
+      <c r="A210" t="s">
+        <v>211</v>
       </c>
       <c r="B210">
         <v>1682025</v>
@@ -3628,8 +3634,8 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>209</v>
+      <c r="A211" t="s">
+        <v>212</v>
       </c>
       <c r="B211">
         <v>52814821</v>
@@ -3639,8 +3645,8 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>210</v>
+      <c r="A212" t="s">
+        <v>213</v>
       </c>
       <c r="B212">
         <v>15078190</v>
@@ -3650,8 +3656,8 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>211</v>
+      <c r="A213" t="s">
+        <v>214</v>
       </c>
       <c r="B213">
         <v>2895467</v>
@@ -3661,8 +3667,8 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>212</v>
+      <c r="A214" t="s">
+        <v>215</v>
       </c>
       <c r="B214">
         <v>816828</v>
@@ -3672,8 +3678,8 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>213</v>
+      <c r="A215" t="s">
+        <v>216</v>
       </c>
       <c r="B215">
         <v>2519934</v>
@@ -3683,8 +3689,8 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>214</v>
+      <c r="A216" t="s">
+        <v>217</v>
       </c>
       <c r="B216">
         <v>268418534</v>
@@ -3694,8 +3700,8 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>215</v>
+      <c r="A217" t="s">
+        <v>218</v>
       </c>
       <c r="B217">
         <v>212336945</v>
@@ -3705,8 +3711,8 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>216</v>
+      <c r="A218" t="s">
+        <v>219</v>
       </c>
       <c r="B218">
         <v>1077817</v>
@@ -3716,8 +3722,8 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>217</v>
+      <c r="A219" t="s">
+        <v>220</v>
       </c>
       <c r="B219">
         <v>406720</v>
@@ -3727,8 +3733,8 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>218</v>
+      <c r="A220" t="s">
+        <v>221</v>
       </c>
       <c r="B220">
         <v>1501770</v>
@@ -3738,8 +3744,8 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>219</v>
+      <c r="A221" t="s">
+        <v>222</v>
       </c>
       <c r="B221">
         <v>2120808</v>
@@ -3749,8 +3755,8 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>220</v>
+      <c r="A222" t="s">
+        <v>223</v>
       </c>
       <c r="B222">
         <v>9602371</v>
@@ -3760,8 +3766,8 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>221</v>
+      <c r="A223" t="s">
+        <v>224</v>
       </c>
       <c r="B223">
         <v>22043195</v>
@@ -3771,8 +3777,8 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>222</v>
+      <c r="A224" t="s">
+        <v>225</v>
       </c>
       <c r="B224">
         <v>719718</v>
@@ -3782,8 +3788,8 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>223</v>
+      <c r="A225" t="s">
+        <v>226</v>
       </c>
       <c r="B225">
         <v>4071560</v>
@@ -3793,8 +3799,8 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>224</v>
+      <c r="A226" t="s">
+        <v>227</v>
       </c>
       <c r="B226">
         <v>10163378</v>
@@ -3804,8 +3810,8 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>225</v>
+      <c r="A227" t="s">
+        <v>228</v>
       </c>
       <c r="B227">
         <v>5173108</v>
@@ -3815,8 +3821,8 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>226</v>
+      <c r="A228" t="s">
+        <v>229</v>
       </c>
       <c r="B228">
         <v>535635</v>
@@ -3826,8 +3832,8 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>227</v>
+      <c r="A229" t="s">
+        <v>230</v>
       </c>
       <c r="B229">
         <v>3316914</v>
@@ -3837,8 +3843,8 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>228</v>
+      <c r="A230" t="s">
+        <v>231</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -3848,8 +3854,8 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>229</v>
+      <c r="A231" t="s">
+        <v>232</v>
       </c>
       <c r="B231">
         <v>8432058</v>
@@ -3859,8 +3865,8 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>230</v>
+      <c r="A232" t="s">
+        <v>233</v>
       </c>
       <c r="B232">
         <v>5948276</v>
@@ -3870,8 +3876,8 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>231</v>
+      <c r="A233" t="s">
+        <v>234</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -3881,8 +3887,8 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>232</v>
+      <c r="A234" t="s">
+        <v>235</v>
       </c>
       <c r="B234">
         <v>63206331</v>
@@ -3892,8 +3898,8 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>233</v>
+      <c r="A235" t="s">
+        <v>236</v>
       </c>
       <c r="B235">
         <v>11566466</v>
@@ -3903,8 +3909,8 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>234</v>
+      <c r="A236" t="s">
+        <v>237</v>
       </c>
       <c r="B236">
         <v>150590955</v>
@@ -3914,8 +3920,8 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>235</v>
+      <c r="A237" t="s">
+        <v>238</v>
       </c>
       <c r="B237">
         <v>1262950060</v>
@@ -3925,8 +3931,8 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>236</v>
+      <c r="A238" t="s">
+        <v>239</v>
       </c>
       <c r="B238">
         <v>31135295</v>
@@ -3936,8 +3942,8 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>237</v>
+      <c r="A239" t="s">
+        <v>240</v>
       </c>
       <c r="B239">
         <v>643716</v>
@@ -3947,8 +3953,8 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>238</v>
+      <c r="A240" t="s">
+        <v>241</v>
       </c>
       <c r="B240">
         <v>95636607</v>
@@ -3958,8 +3964,8 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>239</v>
+      <c r="A241" t="s">
+        <v>242</v>
       </c>
       <c r="B241">
         <v>49140768</v>
@@ -3969,8 +3975,8 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>240</v>
+      <c r="A242" t="s">
+        <v>243</v>
       </c>
       <c r="B242">
         <v>56686224</v>
@@ -3980,8 +3986,8 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>241</v>
+      <c r="A243" t="s">
+        <v>244</v>
       </c>
       <c r="B243">
         <v>58070399</v>
@@ -3991,8 +3997,8 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>242</v>
+      <c r="A244" t="s">
+        <v>245</v>
       </c>
       <c r="B244">
         <v>75925533</v>
@@ -4002,8 +4008,8 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>243</v>
+      <c r="A245" t="s">
+        <v>246</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -4013,8 +4019,8 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>244</v>
+      <c r="A246" t="s">
+        <v>247</v>
       </c>
       <c r="B246">
         <v>20682588</v>
@@ -4024,8 +4030,8 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>245</v>
+      <c r="A247" t="s">
+        <v>248</v>
       </c>
       <c r="B247">
         <v>194628001</v>
@@ -4035,8 +4041,8 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>246</v>
+      <c r="A248" t="s">
+        <v>249</v>
       </c>
       <c r="B248">
         <v>177759450</v>
@@ -4046,8 +4052,8 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>247</v>
+      <c r="A249" t="s">
+        <v>250</v>
       </c>
       <c r="B249">
         <v>56148893</v>
@@ -4057,8 +4063,8 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>248</v>
+      <c r="A250" t="s">
+        <v>251</v>
       </c>
       <c r="B250">
         <v>9323913</v>
@@ -4068,8 +4074,8 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>249</v>
+      <c r="A251" t="s">
+        <v>252</v>
       </c>
       <c r="B251">
         <v>2801334883</v>
@@ -4079,8 +4085,8 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>250</v>
+      <c r="A252" t="s">
+        <v>253</v>
       </c>
       <c r="B252">
         <v>7728831</v>
@@ -4090,8 +4096,8 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>251</v>
+      <c r="A253" t="s">
+        <v>254</v>
       </c>
       <c r="B253">
         <v>9016515</v>
@@ -4101,8 +4107,8 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>252</v>
+      <c r="A254" t="s">
+        <v>255</v>
       </c>
       <c r="B254">
         <v>4323009</v>
@@ -4112,8 +4118,8 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>253</v>
+      <c r="A255" t="s">
+        <v>256</v>
       </c>
       <c r="B255">
         <v>143198808</v>
@@ -4123,8 +4129,8 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>254</v>
+      <c r="A256" t="s">
+        <v>257</v>
       </c>
       <c r="B256">
         <v>25163814</v>
@@ -4134,8 +4140,8 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>255</v>
+      <c r="A257" t="s">
+        <v>258</v>
       </c>
       <c r="B257">
         <v>82643065</v>
@@ -4145,8 +4151,8 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>256</v>
+      <c r="A258" t="s">
+        <v>259</v>
       </c>
       <c r="B258">
         <v>4425929</v>
@@ -4156,8 +4162,8 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>257</v>
+      <c r="A259" t="s">
+        <v>260</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -4167,8 +4173,8 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>258</v>
+      <c r="A260" t="s">
+        <v>261</v>
       </c>
       <c r="B260">
         <v>2973110</v>
@@ -4178,8 +4184,8 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>259</v>
+      <c r="A261" t="s">
+        <v>262</v>
       </c>
       <c r="B261">
         <v>31034000</v>
@@ -4189,8 +4195,8 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>260</v>
+      <c r="A262" t="s">
+        <v>263</v>
       </c>
       <c r="B262">
         <v>185441691</v>
@@ -4200,8 +4206,8 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>261</v>
+      <c r="A263" t="s">
+        <v>264</v>
       </c>
       <c r="B263">
         <v>220855049</v>
@@ -4211,8 +4217,8 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>262</v>
+      <c r="A264" t="s">
+        <v>265</v>
       </c>
       <c r="B264">
         <v>55941706</v>
@@ -4222,8 +4228,8 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>263</v>
+      <c r="A265" t="s">
+        <v>266</v>
       </c>
       <c r="B265">
         <v>230461398</v>
@@ -4233,8 +4239,8 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>264</v>
+      <c r="A266" t="s">
+        <v>267</v>
       </c>
       <c r="B266">
         <v>366627558</v>
@@ -4244,8 +4250,8 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>265</v>
+      <c r="A267" t="s">
+        <v>268</v>
       </c>
       <c r="B267">
         <v>2445982</v>
@@ -4255,8 +4261,8 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>266</v>
+      <c r="A268" t="s">
+        <v>269</v>
       </c>
       <c r="B268">
         <v>89731381</v>
@@ -4266,8 +4272,8 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>267</v>
+      <c r="A269" t="s">
+        <v>270</v>
       </c>
       <c r="B269">
         <v>231420</v>
@@ -4277,8 +4283,8 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>268</v>
+      <c r="A270" t="s">
+        <v>271</v>
       </c>
       <c r="B270">
         <v>26022826</v>
@@ -4288,8 +4294,8 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>269</v>
+      <c r="A271" t="s">
+        <v>272</v>
       </c>
       <c r="B271">
         <v>18840564</v>
@@ -4299,8 +4305,8 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>270</v>
+      <c r="A272" t="s">
+        <v>273</v>
       </c>
       <c r="B272">
         <v>8367910</v>
@@ -4310,8 +4316,8 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>271</v>
+      <c r="A273" t="s">
+        <v>274</v>
       </c>
       <c r="B273">
         <v>3027744</v>
@@ -4321,8 +4327,8 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>272</v>
+      <c r="A274" t="s">
+        <v>275</v>
       </c>
       <c r="B274">
         <v>106694300</v>
@@ -4332,8 +4338,8 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>273</v>
+      <c r="A275" t="s">
+        <v>276</v>
       </c>
       <c r="B275">
         <v>2506531</v>
@@ -4343,8 +4349,8 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>274</v>
+      <c r="A276" t="s">
+        <v>277</v>
       </c>
       <c r="B276">
         <v>229541393</v>
@@ -4354,8 +4360,8 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>275</v>
+      <c r="A277" t="s">
+        <v>278</v>
       </c>
       <c r="B277">
         <v>141819690</v>
@@ -4365,8 +4371,8 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>276</v>
+      <c r="A278" t="s">
+        <v>279</v>
       </c>
       <c r="B278">
         <v>2420204</v>
@@ -4376,8 +4382,8 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>277</v>
+      <c r="A279" t="s">
+        <v>280</v>
       </c>
       <c r="B279">
         <v>4031369</v>
@@ -4387,8 +4393,8 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>278</v>
+      <c r="A280" t="s">
+        <v>281</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -4398,8 +4404,8 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>279</v>
+      <c r="A281" t="s">
+        <v>282</v>
       </c>
       <c r="B281">
         <v>247056829</v>
@@ -4409,8 +4415,8 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>280</v>
+      <c r="A282" t="s">
+        <v>283</v>
       </c>
       <c r="B282">
         <v>157377381</v>
@@ -4420,8 +4426,8 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>281</v>
+      <c r="A283" t="s">
+        <v>284</v>
       </c>
       <c r="B283">
         <v>13916324</v>
@@ -4431,8 +4437,8 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>282</v>
+      <c r="A284" t="s">
+        <v>285</v>
       </c>
       <c r="B284">
         <v>54679593</v>
@@ -4442,8 +4448,8 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>283</v>
+      <c r="A285" t="s">
+        <v>286</v>
       </c>
       <c r="B285">
         <v>780000</v>
@@ -4453,8 +4459,8 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>284</v>
+      <c r="A286" t="s">
+        <v>287</v>
       </c>
       <c r="B286">
         <v>1962780</v>
@@ -4464,8 +4470,8 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>285</v>
+      <c r="A287" t="s">
+        <v>288</v>
       </c>
       <c r="B287">
         <v>108064969</v>
@@ -4475,8 +4481,8 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>286</v>
+      <c r="A288" t="s">
+        <v>289</v>
       </c>
       <c r="B288">
         <v>13310376</v>
@@ -4486,8 +4492,8 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>287</v>
+      <c r="A289" t="s">
+        <v>290</v>
       </c>
       <c r="B289">
         <v>422554074</v>
@@ -4497,8 +4503,8 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>288</v>
+      <c r="A290" t="s">
+        <v>291</v>
       </c>
       <c r="B290">
         <v>6594046</v>
@@ -4508,8 +4514,8 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>289</v>
+      <c r="A291" t="s">
+        <v>292</v>
       </c>
       <c r="B291">
         <v>83159682</v>
@@ -4519,8 +4525,8 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>290</v>
+      <c r="A292" t="s">
+        <v>293</v>
       </c>
       <c r="B292">
         <v>37972890</v>
@@ -4530,8 +4536,8 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>291</v>
+      <c r="A293" t="s">
+        <v>294</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -4541,8 +4547,8 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>292</v>
+      <c r="A294" t="s">
+        <v>295</v>
       </c>
       <c r="B294">
         <v>15520700</v>
@@ -4552,8 +4558,8 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>293</v>
+      <c r="A295" t="s">
+        <v>296</v>
       </c>
       <c r="B295">
         <v>1386615119</v>
@@ -4563,8 +4569,8 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>294</v>
+      <c r="A296" t="s">
+        <v>297</v>
       </c>
       <c r="B296">
         <v>1495854</v>
@@ -4574,8 +4580,8 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>295</v>
+      <c r="A297" t="s">
+        <v>298</v>
       </c>
       <c r="B297">
         <v>120596780</v>
@@ -4585,8 +4591,8 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>296</v>
+      <c r="A298" t="s">
+        <v>299</v>
       </c>
       <c r="B298">
         <v>3850476</v>
@@ -4596,8 +4602,8 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>297</v>
+      <c r="A299" t="s">
+        <v>300</v>
       </c>
       <c r="B299">
         <v>53957033</v>
@@ -4607,8 +4613,8 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>298</v>
+      <c r="A300" t="s">
+        <v>301</v>
       </c>
       <c r="B300">
         <v>63861536</v>
@@ -4618,8 +4624,8 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>299</v>
+      <c r="A301" t="s">
+        <v>302</v>
       </c>
       <c r="B301">
         <v>6012953</v>
@@ -4629,8 +4635,8 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>300</v>
+      <c r="A302" t="s">
+        <v>303</v>
       </c>
       <c r="B302">
         <v>34718263</v>
@@ -4640,8 +4646,8 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>301</v>
+      <c r="A303" t="s">
+        <v>304</v>
       </c>
       <c r="B303">
         <v>4033792</v>
@@ -4651,8 +4657,8 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>302</v>
+      <c r="A304" t="s">
+        <v>305</v>
       </c>
       <c r="B304">
         <v>54254991</v>
@@ -4662,13 +4668,24 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>303</v>
+      <c r="A305" t="s">
+        <v>306</v>
       </c>
       <c r="B305">
         <v>149020579</v>
       </c>
       <c r="C305">
+        <v>202111</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306">
+        <v>17820184183</v>
+      </c>
+      <c r="C306">
         <v>202111</v>
       </c>
     </row>
